--- a/Örnek 27 - Eğer Örneği.xlsx
+++ b/Örnek 27 - Eğer Örneği.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagan\Desktop\OneDrive_2018-12-18\Excel Uygulama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88a89685dae84bb8/Masaüstü/excel ödevi 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E966AFB-19A0-41BB-9222-ACBE3B79CC4D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DB1DE23-9083-4472-AE61-1F7B4486D393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480" tabRatio="698"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="12-geçtikaldı" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ali</t>
   </si>
@@ -144,11 +147,17 @@
   <si>
     <t>Bölüm:</t>
   </si>
+  <si>
+    <t>KÜBRA ÇABUK</t>
+  </si>
+  <si>
+    <t>YBS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -264,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -417,19 +426,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -473,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -512,15 +508,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -528,9 +524,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -821,12 +814,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="L10" sqref="L10:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -863,15 +856,18 @@
       <c r="F4" s="4">
         <v>5</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="19" t="s">
+      <c r="G4" s="9" t="str">
+        <f>IF(F4&lt;45,"KALDI","GEÇTİ")</f>
+        <v>KALDI</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="20"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19"/>
     </row>
     <row r="5" spans="2:14" ht="20.25" x14ac:dyDescent="0.3">
       <c r="E5" s="5" t="s">
@@ -880,15 +876,18 @@
       <c r="F5" s="6">
         <v>50</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="21" t="s">
+      <c r="G5" s="9" t="str">
+        <f t="shared" ref="G5:G10" si="0">IF(F5&lt;45,"KALDI","GEÇTİ")</f>
+        <v>GEÇTİ</v>
+      </c>
+      <c r="H5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="22"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6" spans="2:14" ht="20.25" x14ac:dyDescent="0.3">
       <c r="E6" s="5" t="s">
@@ -897,7 +896,10 @@
       <c r="F6" s="6">
         <v>45</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>GEÇTİ</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -909,7 +911,10 @@
       <c r="F7" s="6">
         <v>5</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>KALDI</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -921,15 +926,20 @@
       <c r="F8" s="6">
         <v>45</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>GEÇTİ</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
+      <c r="L8" s="17">
+        <v>20215070019</v>
+      </c>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
     </row>
     <row r="9" spans="2:14" ht="20.25" x14ac:dyDescent="0.3">
       <c r="E9" s="5" t="s">
@@ -938,15 +948,20 @@
       <c r="F9" s="6">
         <v>60</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>GEÇTİ</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
+      <c r="L9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
     </row>
     <row r="10" spans="2:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E10" s="7" t="s">
@@ -955,15 +970,20 @@
       <c r="F10" s="8">
         <v>44</v>
       </c>
-      <c r="G10" s="16"/>
+      <c r="G10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>KALDI</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
+      <c r="L10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="I11" s="2"/>
@@ -976,17 +996,17 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1001,15 +1021,15 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="2:14" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="23" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
@@ -1018,8 +1038,8 @@
       <c r="M15" s="15"/>
     </row>
     <row r="16" spans="2:14" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -1031,15 +1051,15 @@
       <c r="M16" s="15"/>
     </row>
     <row r="17" spans="3:13" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="23" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
@@ -1082,16 +1102,16 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="L9:N9"/>
     <mergeCell ref="L10:N10"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="H5:M5"/>
     <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="L8:N8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
